--- a/112-2/ADVANCED C PROGRAMMING/Assignment 3/assignment3_grade_purdue.xlsx
+++ b/112-2/ADVANCED C PROGRAMMING/Assignment 3/assignment3_grade_purdue.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -54,6 +54,42 @@
     <t>Score</t>
   </si>
   <si>
+    <t>D1166570</t>
+  </si>
+  <si>
+    <t>李　羽</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>FCU</t>
+  </si>
+  <si>
+    <t>D1171708</t>
+  </si>
+  <si>
+    <t>楊博欽</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>lian</t>
+  </si>
+  <si>
+    <t>D1172268</t>
+  </si>
+  <si>
+    <t>佘峻宇</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Stevenson</t>
+  </si>
+  <si>
     <t>D1175125</t>
   </si>
   <si>
@@ -66,6 +102,18 @@
     <t>Coding</t>
   </si>
   <si>
+    <t>D1189290</t>
+  </si>
+  <si>
+    <t>許博琮</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Beaver</t>
+  </si>
+  <si>
     <t>D1228792</t>
   </si>
   <si>
@@ -274,9 +322,6 @@
   </si>
   <si>
     <t>何柏勳</t>
-  </si>
-  <si>
-    <t>Terry</t>
   </si>
   <si>
     <t>Jacky</t>
@@ -350,12 +395,18 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="微軟正黑體"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="136"/>
     </font>
     <font>
@@ -370,11 +421,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -720,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -741,6 +787,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -865,7 +924,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,34 +936,34 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,7 +1048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,41 +1066,58 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1568,14 +1644,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1585,7 +1661,7 @@
     <col min="3" max="3" width="8.66666666666667" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.50833333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.9166666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="64.0833333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="60.75" style="4" customWidth="1"/>
     <col min="7" max="7" width="6.16666666666667" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9.75" style="4"/>
   </cols>
@@ -1617,115 +1693,115 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="15.5" spans="1:7">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F3" s="14"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="15.5" spans="1:7">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F4" s="14"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15.5" spans="1:7">
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F5" s="14"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15.5" spans="1:7">
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F6" s="14"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15.5" spans="1:7">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A8" s="9">
@@ -1734,36 +1810,36 @@
       <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A10" s="9">
@@ -1772,17 +1848,17 @@
       <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A11" s="9">
@@ -1791,17 +1867,17 @@
       <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A12" s="9">
@@ -1810,17 +1886,17 @@
       <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A13" s="9">
@@ -1829,17 +1905,17 @@
       <c r="B13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A14" s="9">
@@ -1848,17 +1924,17 @@
       <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A15" s="9">
@@ -1867,17 +1943,17 @@
       <c r="B15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A16" s="9">
@@ -1886,17 +1962,17 @@
       <c r="B16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A17" s="9">
@@ -1905,17 +1981,17 @@
       <c r="B17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A18" s="9">
@@ -1924,17 +2000,17 @@
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A19" s="9">
@@ -1943,17 +2019,17 @@
       <c r="B19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A20" s="9">
@@ -1962,17 +2038,17 @@
       <c r="B20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="17" spans="1:7">
       <c r="A21" s="9">
@@ -1981,17 +2057,17 @@
       <c r="B21" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" ht="17" spans="1:7">
       <c r="A22" s="9">
@@ -2000,19 +2076,98 @@
       <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" ht="17" spans="1:7">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" ht="17" spans="1:7">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" ht="17" spans="1:7">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" ht="17" spans="1:7">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="8"/>
     </row>
   </sheetData>
+  <sortState ref="A2:G26">
+    <sortCondition ref="A2"/>
+  </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1.45625" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
